--- a/docs/メッセージ一覧.xlsx
+++ b/docs/メッセージ一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool-base\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485D6222-E388-437D-A285-1BAF60133C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0F26AA-49A9-4555-A534-1CD31EF53FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="0" windowWidth="19390" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -334,18 +334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Javadocタグ設定処理を開始します。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -622,13 +610,6 @@
     <t>Javadocタグ設定の対象外です。識別子=[{0}]、オリジナルブロック=[{1}]</t>
     <rPh sb="12" eb="15">
       <t>タイショウガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Javadocタグ設定で対象ファイルが見つかりません。対象ファイルパス=[{0}]</t>
-    <rPh sb="19" eb="20">
-      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2808,7 +2789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E6C619-B784-41B2-B5EC-BFE53C95AE69}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -2869,7 +2850,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A70" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A66" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="17">
@@ -2940,7 +2921,7 @@
         <v>3001</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2956,7 +2937,7 @@
         <v>3002</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3004,7 +2985,7 @@
         <v>3005</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3164,7 +3145,7 @@
         <v>7001</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3228,7 +3209,7 @@
         <v>7005</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3244,7 +3225,7 @@
         <v>7006</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3260,7 +3241,7 @@
         <v>8000</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3276,7 +3257,7 @@
         <v>8001</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3292,7 +3273,7 @@
         <v>8002</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3356,7 +3337,7 @@
         <v>10000</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D34" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3372,10 +3353,10 @@
         <v>10001</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D35" s="11" t="str">
-        <f t="shared" ref="D35:D71" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
+        <f t="shared" ref="D35:D67" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
         <v>KMGTOOL_GEN10001=暗号化されたファイルです。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
@@ -3388,7 +3369,7 @@
         <v>10002</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D36" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3404,7 +3385,7 @@
         <v>10003</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D37" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3420,7 +3401,7 @@
         <v>10004</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D38" s="11" t="str">
         <f>IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
@@ -3436,7 +3417,7 @@
         <v>10005</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D39" s="11" t="str">
         <f>IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
@@ -3452,7 +3433,7 @@
         <v>10006</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D40" s="11" t="str">
         <f>IF(C40="","",$D$1&amp;TEXT(B40,"00000")&amp;"="&amp;C40)</f>
@@ -3468,7 +3449,7 @@
         <v>12000</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D41" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3484,7 +3465,7 @@
         <v>12001</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D42" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3500,7 +3481,7 @@
         <v>12002</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D43" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3516,7 +3497,7 @@
         <v>12003</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D44" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3532,7 +3513,7 @@
         <v>12004</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D45" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3548,75 +3529,75 @@
         <v>12005</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D46" s="11" t="str">
         <f t="shared" si="2"/>
         <v>KMGTOOL_GEN12005=Javadoc行削除中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="54">
+    <row r="47" spans="1:4" ht="36">
       <c r="A47" s="6">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="17">
-        <v>13000</v>
+      <c r="B47" s="8">
+        <v>13003</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13000=Javadocタグ設定で現在のファイルに内容を書き込み中に例外が発生しました。現在のファイルパス=[{0}]、書き込む内容=[{1}]</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN13003=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="6">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="17">
-        <v>13001</v>
+      <c r="B48" s="8">
+        <v>13004</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D48" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13001=Javadocタグ設定で現在のファイルをロード中に例外が発生しました。現在のファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN13004=入力ファイルから対象パスを設定に失敗しました。</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="17">
-        <v>13002</v>
+      <c r="B49" s="8">
+        <v>13005</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D49" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13002=Javadocタグ設定で対象ファイルをロード中に例外が発生しました。対象ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN13005=実行が成功しました。</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="6">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B50" s="8">
-        <v>13003</v>
+        <v>13006</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D50" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13003=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
+        <v>KMGTOOL_GEN13006=実行中に例外が発生しました。</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3625,14 +3606,14 @@
         <v>49</v>
       </c>
       <c r="B51" s="8">
-        <v>13004</v>
+        <v>13007</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D51" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13004=入力ファイルから対象パスを設定に失敗しました。</v>
+        <v>KMGTOOL_GEN13007=バリデーションエラーが発生しました。</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3641,14 +3622,14 @@
         <v>50</v>
       </c>
       <c r="B52" s="8">
-        <v>13005</v>
+        <v>13008</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D52" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13005=実行が成功しました。</v>
+        <f t="shared" ref="D52" si="3">IF(C52="","",$D$1&amp;TEXT(B52,"00000")&amp;"="&amp;C52)</f>
+        <v>KMGTOOL_GEN13008=実行時例外が発生しました。</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3656,15 +3637,15 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="8">
-        <v>13006</v>
+      <c r="B53" s="17">
+        <v>14000</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D53" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13006=実行中に例外が発生しました。</v>
+        <v>KMGTOOL_GEN14000=項目名がnullです。</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3672,31 +3653,31 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="8">
-        <v>13007</v>
+      <c r="B54" s="17">
+        <v>14001</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D54" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13007=バリデーションエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>KMGTOOL_GEN14001=項目がnullです。</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="36">
       <c r="A55" s="6">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B55" s="8">
-        <v>13008</v>
+      <c r="B55" s="17">
+        <v>14002</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="D55" s="11" t="str">
-        <f t="shared" ref="D55" si="3">IF(C55="","",$D$1&amp;TEXT(B55,"00000")&amp;"="&amp;C55)</f>
-        <v>KMGTOOL_GEN13008=実行時例外が発生しました。</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN14002=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="36">
@@ -3704,15 +3685,15 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B56" s="8">
-        <v>13009</v>
+      <c r="B56" s="17">
+        <v>14003</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D56" s="11" t="str">
-        <f t="shared" ref="D56" si="4">IF(C56="","",$D$1&amp;TEXT(B56,"00000")&amp;"="&amp;C56)</f>
-        <v>KMGTOOL_GEN13009=Javadocタグ設定で対象ファイルが見つかりません。対象ファイルパス=[{0}]</v>
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN14003=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3720,15 +3701,15 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B57" s="17">
-        <v>14000</v>
+      <c r="B57" s="18">
+        <v>15000</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D57" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN14000=項目名がnullです。</v>
+        <v>KMGTOOL_GEN15000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3736,15 +3717,15 @@
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B58" s="17">
-        <v>14001</v>
+      <c r="B58" s="18">
+        <v>16000</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D58" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN14001=項目がnullです。</v>
+        <v>KMGTOOL_GEN16000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="36">
@@ -3752,31 +3733,31 @@
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B59" s="17">
-        <v>14002</v>
+      <c r="B59" s="18">
+        <v>16001</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D59" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN14002=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN16001=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="6">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="17">
-        <v>14003</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>40</v>
+      <c r="B60" s="19">
+        <v>19000</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D60" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN14003=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
+        <v>KMGTOOL_GEN19000=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3784,15 +3765,15 @@
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B61" s="18">
-        <v>15000</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>13</v>
+      <c r="B61" s="19">
+        <v>19001</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="D61" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN15000=ファイル処理に失敗しました。</v>
+        <v>KMGTOOL_GEN19001=実行が成功しました。</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3800,47 +3781,47 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B62" s="18">
-        <v>16000</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>13</v>
+      <c r="B62" s="19">
+        <v>19002</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="D62" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN16000=ファイル処理に失敗しました。</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN19002=実行中に例外が発生しました。</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="6">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B63" s="18">
-        <v>16001</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>14</v>
+      <c r="B63" s="19">
+        <v>19003</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="D63" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN16001=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>KMGTOOL_GEN19003=バリデーションエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="54">
       <c r="A64" s="6">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B64" s="19">
-        <v>19000</v>
+        <v>19004</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D64" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN19000=入力ファイルから対象パスを設定に失敗しました。</v>
+        <v>KMGTOOL_GEN19004=対象値からUUIDへの置換数とUUIDから置換値への置換数が一致しません。対象値からUUIDへの置換数：[{0}]、UUIDから置換値への置換数：[{1}]</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3848,15 +3829,11 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B65" s="19">
-        <v>19001</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN19001=実行が成功しました。</v>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3864,100 +3841,88 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B66" s="19">
-        <v>19002</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN19002=実行中に例外が発生しました。</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A67:A81" si="4">ROW()-2</f>
         <v>65</v>
       </c>
-      <c r="B67" s="19">
-        <v>19003</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN19003=バリデーションエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="54">
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="B68" s="19">
-        <v>19004</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="6"/>
       <c r="D68" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN19004=対象値からUUIDへの置換数とUUIDから置換値への置換数が一致しません。対象値からUUIDへの置換数：[{0}]、UUIDから置換値への置換数：[{1}]</v>
+        <f t="shared" ref="D68:D69" si="5">IF(C68="","",$D$1&amp;TEXT(B68,"00000")&amp;"="&amp;C68)</f>
+        <v/>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="6"/>
       <c r="D69" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="6"/>
       <c r="D70" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D70:D81" si="6">IF(C70="","",$D$1&amp;TEXT(B70,"00000")&amp;"="&amp;C70)</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="6">
-        <f t="shared" ref="A71:A85" si="5">ROW()-2</f>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="6"/>
       <c r="D71" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="6"/>
       <c r="D72" s="11" t="str">
-        <f t="shared" ref="D72:D73" si="6">IF(C72="","",$D$1&amp;TEXT(B72,"00000")&amp;"="&amp;C72)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="B73" s="19"/>
@@ -3969,151 +3934,103 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="6"/>
       <c r="D74" s="11" t="str">
-        <f t="shared" ref="D74:D85" si="7">IF(C74="","",$D$1&amp;TEXT(B74,"00000")&amp;"="&amp;C74)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="6"/>
       <c r="D75" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="6"/>
       <c r="D76" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="6"/>
       <c r="D77" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="6"/>
       <c r="D78" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="6"/>
       <c r="D79" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="6"/>
       <c r="D80" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="6"/>
       <c r="D81" s="11" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="6">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="B82" s="19"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="6">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="6">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="6">
-        <f t="shared" si="5"/>
-        <v>83</v>
-      </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D73">
-    <sortCondition ref="B3:B73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D69">
+    <sortCondition ref="B3:B69"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -4177,7 +4094,7 @@
         <v>1000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D55" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -4193,7 +4110,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4337,7 +4254,7 @@
         <v>4003</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4353,7 +4270,7 @@
         <v>4004</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4417,7 +4334,7 @@
         <v>5003</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4433,7 +4350,7 @@
         <v>5004</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4481,7 +4398,7 @@
         <v>7002</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4497,7 +4414,7 @@
         <v>7003</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4513,7 +4430,7 @@
         <v>10000</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4529,7 +4446,7 @@
         <v>10001</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4545,7 +4462,7 @@
         <v>10002</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4561,7 +4478,7 @@
         <v>12000</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4577,7 +4494,7 @@
         <v>13000</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D28" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4593,7 +4510,7 @@
         <v>13001</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4609,7 +4526,7 @@
         <v>13002</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4625,7 +4542,7 @@
         <v>13003</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D31" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4641,7 +4558,7 @@
         <v>13004</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D32" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4657,7 +4574,7 @@
         <v>13005</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D33" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4673,7 +4590,7 @@
         <v>13006</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D34" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4689,7 +4606,7 @@
         <v>13007</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D35" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4705,7 +4622,7 @@
         <v>13008</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D36" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4769,7 +4686,7 @@
         <v>14003</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D40" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4785,7 +4702,7 @@
         <v>14004</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D41" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4849,7 +4766,7 @@
         <v>19000</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D45" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4865,7 +4782,7 @@
         <v>19001</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D46" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5069,7 +4986,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5095,7 +5012,7 @@
         <v>13000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D13" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -5111,7 +5028,7 @@
         <v>13001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5127,7 +5044,7 @@
         <v>13002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5143,7 +5060,7 @@
         <v>13003</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5159,7 +5076,7 @@
         <v>13004</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5175,7 +5092,7 @@
         <v>13005</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5191,7 +5108,7 @@
         <v>13006</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5207,7 +5124,7 @@
         <v>13007</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5223,7 +5140,7 @@
         <v>13008</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5239,7 +5156,7 @@
         <v>13009</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5255,7 +5172,7 @@
         <v>13010</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>

--- a/docs/メッセージ一覧.xlsx
+++ b/docs/メッセージ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool-base\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0F26AA-49A9-4555-A534-1CD31EF53FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3CCB05-59B0-438B-8A22-CC9E780F804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -610,6 +610,20 @@
     <t>Javadocタグ設定の対象外です。識別子=[{0}]、オリジナルブロック=[{1}]</t>
     <rPh sb="12" eb="15">
       <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力、中間、テンプレート、出力の1行パターンの抽象クラスの初期処理で出力ファイルの区切り文字が「null」です。</t>
+    <rPh sb="29" eb="33">
+      <t>ショキショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力、中間、テンプレート、出力の1行パターンの抽象クラスの初期処理で出力ファイルの区切り文字が「NONE」です。</t>
+    <rPh sb="29" eb="33">
+      <t>ショキショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2789,7 +2803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E6C619-B784-41B2-B5EC-BFE53C95AE69}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -2844,13 +2858,13 @@
         <v>33</v>
       </c>
       <c r="D3" s="11" t="str">
-        <f t="shared" ref="D3:D34" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D36" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN01000=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A66" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A68" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="17">
@@ -3228,56 +3242,56 @@
         <v>87</v>
       </c>
       <c r="D27" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D27:D28" si="2">IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
         <v>KMGTOOL_GEN07006=一時的な中間ファイルの作成に失敗しました。中間ファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="36">
       <c r="A28" s="6">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="17">
+        <v>7007</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>KMGTOOL_GEN07007=入力、中間、テンプレート、出力の1行パターンの抽象クラスの初期処理で出力ファイルの区切り文字が「null」です。</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="54">
+      <c r="A29" s="6">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="17">
+        <v>7008</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_GEN07008=入力、中間、テンプレート、出力の1行パターンの抽象クラスの初期処理で出力ファイルの区切り文字が「NONE」です。</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="6">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="8">
         <v>8000</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C30" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="11" t="str">
+      <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN08000=入力ファイルパスがnullです。</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B29" s="8">
-        <v>8001</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN08001=入力パスファイルが存在しません。入力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="36">
-      <c r="A30" s="6">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B30" s="8">
-        <v>8002</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN08002=入力ファイルの読み込みに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3286,30 +3300,30 @@
         <v>29</v>
       </c>
       <c r="B31" s="8">
-        <v>9000</v>
+        <v>8001</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D31" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN09000=失敗</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>KMGTOOL_GEN08001=入力パスファイルが存在しません。入力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="36">
       <c r="A32" s="6">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="8">
-        <v>9001</v>
+        <v>8002</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D32" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN09001=成功</v>
+        <v>KMGTOOL_GEN08002=入力ファイルの読み込みに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3318,30 +3332,30 @@
         <v>31</v>
       </c>
       <c r="B33" s="8">
-        <v>9002</v>
+        <v>9000</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN09002=例外発生</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN09000=失敗</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="6">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="17">
-        <v>10000</v>
+      <c r="B34" s="8">
+        <v>9001</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D34" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN10000=出力ファイルのディレクトリの作成に失敗しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOL_GEN09001=成功</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3349,15 +3363,15 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="17">
-        <v>10001</v>
+      <c r="B35" s="8">
+        <v>9002</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D35" s="11" t="str">
-        <f t="shared" ref="D35:D67" si="2">IF(C35="","",$D$1&amp;TEXT(B35,"00000")&amp;"="&amp;C35)</f>
-        <v>KMGTOOL_GEN10001=暗号化されたファイルです。入力ファイルのパス=[{0}]</v>
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_GEN09002=例外発生</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="36">
@@ -3366,46 +3380,46 @@
         <v>34</v>
       </c>
       <c r="B36" s="17">
+        <v>10000</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>KMGTOOL_GEN10000=出力ファイルのディレクトリの作成に失敗しました。出力ファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="6">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="17">
+        <v>10001</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="11" t="str">
+        <f t="shared" ref="D37:D69" si="3">IF(C37="","",$D$1&amp;TEXT(B37,"00000")&amp;"="&amp;C37)</f>
+        <v>KMGTOOL_GEN10001=暗号化されたファイルです。入力ファイルのパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="36">
+      <c r="A38" s="6">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="17">
         <v>10002</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="D38" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN10002=入力ファイルのパスの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="36">
-      <c r="A37" s="6">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B37" s="17">
-        <v>10003</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN10003=出力ファイルへの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="6">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="17">
-        <v>10004</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="11" t="str">
-        <f>IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
-        <v>KMGTOOL_GEN10004=ワークブックが空です。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="36">
@@ -3414,14 +3428,14 @@
         <v>37</v>
       </c>
       <c r="B39" s="17">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D39" s="11" t="str">
-        <f>IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
-        <v>KMGTOOL_GEN10005=ワークブックの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN10003=出力ファイルへの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3430,14 +3444,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="17">
-        <v>10006</v>
+        <v>10004</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D40" s="11" t="str">
         <f>IF(C40="","",$D$1&amp;TEXT(B40,"00000")&amp;"="&amp;C40)</f>
-        <v>KMGTOOL_GEN10006=入力シートはnullです。</v>
+        <v>KMGTOOL_GEN10004=ワークブックが空です。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="36">
@@ -3446,30 +3460,30 @@
         <v>39</v>
       </c>
       <c r="B41" s="17">
-        <v>12000</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>73</v>
+        <v>10005</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="D41" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN12000=ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="36">
+        <f>IF(C41="","",$D$1&amp;TEXT(B41,"00000")&amp;"="&amp;C41)</f>
+        <v>KMGTOOL_GEN10005=ワークブックの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="6">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="17">
-        <v>12001</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>74</v>
+        <v>10006</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="D42" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN12001=ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
+        <f>IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
+        <v>KMGTOOL_GEN10006=入力シートはnullです。</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="36">
@@ -3478,46 +3492,46 @@
         <v>41</v>
       </c>
       <c r="B43" s="17">
+        <v>12000</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN12000=ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="36">
+      <c r="A44" s="6">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="17">
+        <v>12001</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN12001=ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="36">
+      <c r="A45" s="6">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="17">
         <v>12002</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="D45" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN12002=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="6">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B44" s="17">
-        <v>12003</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN12003=Javadoc行削除の初期化に失敗しました。</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="6">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B45" s="17">
-        <v>12004</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN12004=Javadoc行削除が正常に完了しました。</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3526,30 +3540,30 @@
         <v>44</v>
       </c>
       <c r="B46" s="17">
-        <v>12005</v>
+        <v>12003</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D46" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN12005=Javadoc行削除中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="36">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN12003=Javadoc行削除の初期化に失敗しました。</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="6">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="8">
-        <v>13003</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>46</v>
+      <c r="B47" s="17">
+        <v>12004</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="D47" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13003=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN12004=Javadoc行削除が正常に完了しました。</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3557,31 +3571,31 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="8">
-        <v>13004</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>50</v>
+      <c r="B48" s="17">
+        <v>12005</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="D48" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13004=入力ファイルから対象パスを設定に失敗しました。</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN12005=Javadoc行削除中にエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="36">
       <c r="A49" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B49" s="8">
-        <v>13005</v>
+        <v>13003</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D49" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13005=実行が成功しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN13003=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3590,14 +3604,14 @@
         <v>48</v>
       </c>
       <c r="B50" s="8">
-        <v>13006</v>
+        <v>13004</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D50" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13006=実行中に例外が発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN13004=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3606,14 +3620,14 @@
         <v>49</v>
       </c>
       <c r="B51" s="8">
-        <v>13007</v>
+        <v>13005</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D51" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN13007=バリデーションエラーが発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN13005=実行が成功しました。</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3622,14 +3636,14 @@
         <v>50</v>
       </c>
       <c r="B52" s="8">
-        <v>13008</v>
+        <v>13006</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="D52" s="11" t="str">
-        <f t="shared" ref="D52" si="3">IF(C52="","",$D$1&amp;TEXT(B52,"00000")&amp;"="&amp;C52)</f>
-        <v>KMGTOOL_GEN13008=実行時例外が発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN13006=実行中に例外が発生しました。</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3637,15 +3651,15 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="17">
-        <v>14000</v>
+      <c r="B53" s="8">
+        <v>13007</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D53" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN14000=項目名がnullです。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN13007=バリデーションエラーが発生しました。</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3653,95 +3667,95 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="8">
+        <v>13008</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="11" t="str">
+        <f t="shared" ref="D54" si="4">IF(C54="","",$D$1&amp;TEXT(B54,"00000")&amp;"="&amp;C54)</f>
+        <v>KMGTOOL_GEN13008=実行時例外が発生しました。</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="6">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="17">
+        <v>14000</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN14000=項目名がnullです。</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="6">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="17">
         <v>14001</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="D56" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN14001=項目がnullです。</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="36">
-      <c r="A55" s="6">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="17">
+    <row r="57" spans="1:4" ht="36">
+      <c r="A57" s="6">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="17">
         <v>14002</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="D57" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN14002=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="36">
-      <c r="A56" s="6">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="17">
+    <row r="58" spans="1:4" ht="36">
+      <c r="A58" s="6">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="17">
         <v>14003</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="D58" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN14003=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="6">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="18">
+    <row r="59" spans="1:4">
+      <c r="A59" s="6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="18">
         <v>15000</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="11" t="str">
-        <f t="shared" si="2"/>
+      <c r="D59" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>KMGTOOL_GEN15000=ファイル処理に失敗しました。</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="6">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="18">
-        <v>16000</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN16000=ファイル処理に失敗しました。</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="36">
-      <c r="A59" s="6">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B59" s="18">
-        <v>16001</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN16001=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3749,31 +3763,31 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B60" s="19">
-        <v>19000</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>50</v>
+      <c r="B60" s="18">
+        <v>16000</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="D60" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN19000=入力ファイルから対象パスを設定に失敗しました。</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN16000=ファイル処理に失敗しました。</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="36">
       <c r="A61" s="6">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B61" s="19">
-        <v>19001</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>51</v>
+      <c r="B61" s="18">
+        <v>16001</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D61" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN19001=実行が成功しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN16001=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3782,14 +3796,14 @@
         <v>60</v>
       </c>
       <c r="B62" s="19">
-        <v>19002</v>
+        <v>19000</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D62" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN19002=実行中に例外が発生しました。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN19000=入力ファイルから対象パスを設定に失敗しました。</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3798,30 +3812,30 @@
         <v>61</v>
       </c>
       <c r="B63" s="19">
-        <v>19003</v>
+        <v>19001</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D63" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN19003=バリデーションエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="54">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN19001=実行が成功しました。</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="6">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B64" s="19">
-        <v>19004</v>
+        <v>19002</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="D64" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN19004=対象値からUUIDへの置換数とUUIDから置換値への置換数が一致しません。対象値からUUIDへの置換数：[{0}]、UUIDから置換値への置換数：[{1}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN19002=実行中に例外が発生しました。</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3829,76 +3843,84 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="6"/>
+      <c r="B65" s="19">
+        <v>19003</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="D65" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN19003=バリデーションエラーが発生しました。</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="54">
       <c r="A66" s="6">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="6"/>
+      <c r="B66" s="19">
+        <v>19004</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="D66" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN19004=対象値からUUIDへの置換数とUUIDから置換値への置換数が一致しません。対象値からUUIDへの置換数：[{0}]、UUIDから置換値への置換数：[{1}]</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6">
-        <f t="shared" ref="A67:A81" si="4">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="6"/>
       <c r="D67" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="6"/>
       <c r="D68" s="11" t="str">
-        <f t="shared" ref="D68:D69" si="5">IF(C68="","",$D$1&amp;TEXT(B68,"00000")&amp;"="&amp;C68)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A69:A83" si="5">ROW()-2</f>
         <v>67</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="6"/>
       <c r="D69" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="6"/>
       <c r="D70" s="11" t="str">
-        <f t="shared" ref="D70:D81" si="6">IF(C70="","",$D$1&amp;TEXT(B70,"00000")&amp;"="&amp;C70)</f>
+        <f t="shared" ref="D70:D71" si="6">IF(C70="","",$D$1&amp;TEXT(B70,"00000")&amp;"="&amp;C70)</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="B71" s="19"/>
@@ -3910,127 +3932,151 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="6"/>
       <c r="D72" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D72:D83" si="7">IF(C72="","",$D$1&amp;TEXT(B72,"00000")&amp;"="&amp;C72)</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="6"/>
       <c r="D73" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="6"/>
       <c r="D74" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="B75" s="19"/>
       <c r="C75" s="6"/>
       <c r="D75" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="6"/>
       <c r="D76" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="6"/>
       <c r="D77" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="6"/>
       <c r="D78" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="6"/>
       <c r="D79" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="B80" s="19"/>
       <c r="C80" s="6"/>
       <c r="D80" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="6"/>
       <c r="D81" s="11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="6">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="19"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="6">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="19"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D69">
-    <sortCondition ref="B3:B69"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D71">
+    <sortCondition ref="B3:B71"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/docs/メッセージ一覧.xlsx
+++ b/docs/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool-base\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3CCB05-59B0-438B-8A22-CC9E780F804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4055304-761E-4624-BB22-5D5CF6CF210C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -97,27 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>失敗</t>
-    <rPh sb="0" eb="2">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <rPh sb="0" eb="2">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例外発生</t>
-    <rPh sb="0" eb="4">
-      <t>レイガイハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期化の失敗</t>
     <rPh sb="0" eb="3">
       <t>ショキカ</t>
@@ -354,18 +333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力ファイルから対象パスを設定に失敗しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実行が成功しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実行中に例外が発生しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</t>
   </si>
   <si>
@@ -443,10 +410,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バリデーションエラーが発生しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -460,18 +423,6 @@
   </si>
   <si>
     <t>削除した行数=[{0}] Javadoc行の削除が完了しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Javadoc行削除の初期化に失敗しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Javadoc行削除が正常に完了しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Javadoc行削除中にエラーが発生しました。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -600,10 +551,6 @@
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実行時例外が発生しました。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2803,7 +2750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E6C619-B784-41B2-B5EC-BFE53C95AE69}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -2829,7 +2776,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2855,23 +2802,23 @@
         <v>1000</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="11" t="str">
-        <f t="shared" ref="D3:D36" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D33" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_GEN01000=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6">
-        <f t="shared" ref="A4:A68" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A53" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="17">
         <v>1001</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2887,7 +2834,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2903,7 +2850,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2919,7 +2866,7 @@
         <v>3000</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2935,7 +2882,7 @@
         <v>3001</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2951,7 +2898,7 @@
         <v>3002</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2967,7 +2914,7 @@
         <v>3003</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2983,7 +2930,7 @@
         <v>3004</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2999,7 +2946,7 @@
         <v>3005</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3015,7 +2962,7 @@
         <v>3006</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3031,7 +2978,7 @@
         <v>4000</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3047,7 +2994,7 @@
         <v>4001</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3063,7 +3010,7 @@
         <v>4002</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3079,7 +3026,7 @@
         <v>5000</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3095,7 +3042,7 @@
         <v>5001</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3111,7 +3058,7 @@
         <v>5002</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3127,7 +3074,7 @@
         <v>5003</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D20" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3143,7 +3090,7 @@
         <v>7000</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3159,7 +3106,7 @@
         <v>7001</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3175,7 +3122,7 @@
         <v>7002</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3191,7 +3138,7 @@
         <v>7003</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3207,7 +3154,7 @@
         <v>7004</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3223,7 +3170,7 @@
         <v>7005</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3239,7 +3186,7 @@
         <v>7006</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D27" s="11" t="str">
         <f t="shared" ref="D27:D28" si="2">IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
@@ -3255,7 +3202,7 @@
         <v>7007</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D28" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3271,7 +3218,7 @@
         <v>7008</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3287,7 +3234,7 @@
         <v>8000</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3303,7 +3250,7 @@
         <v>8001</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D31" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3319,27 +3266,27 @@
         <v>8002</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOL_GEN08002=入力ファイルの読み込みに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="36">
       <c r="A33" s="6">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B33" s="8">
-        <v>9000</v>
+      <c r="B33" s="17">
+        <v>10000</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D33" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN09000=失敗</v>
+        <v>KMGTOOL_GEN10000=出力ファイルのディレクトリの作成に失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3347,31 +3294,31 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B34" s="8">
-        <v>9001</v>
+      <c r="B34" s="17">
+        <v>10001</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D34" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN09001=成功</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <f t="shared" ref="D34:D54" si="3">IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
+        <v>KMGTOOL_GEN10001=暗号化されたファイルです。入力ファイルのパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="36">
       <c r="A35" s="6">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B35" s="8">
-        <v>9002</v>
+      <c r="B35" s="17">
+        <v>10002</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D35" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN09002=例外発生</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN10002=入力ファイルのパスの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="36">
@@ -3380,14 +3327,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="17">
-        <v>10000</v>
+        <v>10003</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D36" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN10000=出力ファイルのディレクトリの作成に失敗しました。出力ファイルパス=[{0}]</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN10003=出力ファイルへの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3396,14 +3343,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="17">
-        <v>10001</v>
+        <v>10004</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D37" s="11" t="str">
-        <f t="shared" ref="D37:D69" si="3">IF(C37="","",$D$1&amp;TEXT(B37,"00000")&amp;"="&amp;C37)</f>
-        <v>KMGTOOL_GEN10001=暗号化されたファイルです。入力ファイルのパス=[{0}]</v>
+        <f>IF(C37="","",$D$1&amp;TEXT(B37,"00000")&amp;"="&amp;C37)</f>
+        <v>KMGTOOL_GEN10004=ワークブックが空です。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="36">
@@ -3412,46 +3359,46 @@
         <v>36</v>
       </c>
       <c r="B38" s="17">
-        <v>10002</v>
+        <v>10005</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D38" s="11" t="str">
+        <f>IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
+        <v>KMGTOOL_GEN10005=ワークブックの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="6">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="17">
+        <v>10006</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="11" t="str">
+        <f>IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
+        <v>KMGTOOL_GEN10006=入力シートはnullです。</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="36">
+      <c r="A40" s="6">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="17">
+        <v>12000</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN10002=入力ファイルのパスの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="36">
-      <c r="A39" s="6">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B39" s="17">
-        <v>10003</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN10003=出力ファイルへの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="6">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B40" s="17">
-        <v>10004</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="11" t="str">
-        <f>IF(C40="","",$D$1&amp;TEXT(B40,"00000")&amp;"="&amp;C40)</f>
-        <v>KMGTOOL_GEN10004=ワークブックが空です。入力ファイルのパス=[{0}]</v>
+        <v>KMGTOOL_GEN12000=ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="36">
@@ -3460,30 +3407,30 @@
         <v>39</v>
       </c>
       <c r="B41" s="17">
-        <v>10005</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>102</v>
+        <v>12001</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="D41" s="11" t="str">
-        <f>IF(C41="","",$D$1&amp;TEXT(B41,"00000")&amp;"="&amp;C41)</f>
-        <v>KMGTOOL_GEN10005=ワークブックの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN12001=ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="36">
       <c r="A42" s="6">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="17">
-        <v>10006</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>103</v>
+        <v>12002</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="D42" s="11" t="str">
-        <f>IF(C42="","",$D$1&amp;TEXT(B42,"00000")&amp;"="&amp;C42)</f>
-        <v>KMGTOOL_GEN10006=入力シートはnullです。</v>
+        <f t="shared" si="3"/>
+        <v>KMGTOOL_GEN12002=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="36">
@@ -3491,79 +3438,79 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="17">
-        <v>12000</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>73</v>
+      <c r="B43" s="8">
+        <v>13003</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="D43" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN12000=ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN13003=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="6">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="17">
-        <v>12001</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>74</v>
+        <v>14000</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="D44" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN12001=ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN14000=項目名がnullです。</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="6">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B45" s="17">
-        <v>12002</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>75</v>
+        <v>14001</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="D45" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN12002=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>KMGTOOL_GEN14001=項目がnullです。</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="36">
       <c r="A46" s="6">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B46" s="17">
-        <v>12003</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>77</v>
+        <v>14002</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="D46" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN12003=Javadoc行削除の初期化に失敗しました。</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>KMGTOOL_GEN14002=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="36">
       <c r="A47" s="6">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B47" s="17">
-        <v>12004</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>78</v>
+        <v>14003</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D47" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN12004=Javadoc行削除が正常に完了しました。</v>
+        <v>KMGTOOL_GEN14003=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3571,63 +3518,63 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="17">
-        <v>12005</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>79</v>
+      <c r="B48" s="18">
+        <v>15000</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="D48" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN12005=Javadoc行削除中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="36">
+        <v>KMGTOOL_GEN15000=ファイル処理に失敗しました。</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="6">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="8">
-        <v>13003</v>
+      <c r="B49" s="18">
+        <v>16000</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D49" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN13003=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>KMGTOOL_GEN16000=ファイル処理に失敗しました。</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="36">
       <c r="A50" s="6">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="8">
-        <v>13004</v>
+      <c r="B50" s="18">
+        <v>16001</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D50" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN13004=入力ファイルから対象パスを設定に失敗しました。</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>KMGTOOL_GEN16001=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="54">
       <c r="A51" s="6">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="8">
-        <v>13005</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>51</v>
+      <c r="B51" s="19">
+        <v>19004</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="D51" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN13005=実行が成功しました。</v>
+        <v>KMGTOOL_GEN19004=対象値からUUIDへの置換数とUUIDから置換値への置換数が一致しません。対象値からUUIDへの置換数：[{0}]、UUIDから置換値への置換数：[{1}]</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3635,15 +3582,11 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="8">
-        <v>13006</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN13006=実行中に例外が発生しました。</v>
+        <v/>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3651,432 +3594,196 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B53" s="8">
-        <v>13007</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>72</v>
-      </c>
+      <c r="B53" s="19"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN13007=バリデーションエラーが発生しました。</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A54:A68" si="4">ROW()-2</f>
         <v>52</v>
       </c>
-      <c r="B54" s="8">
-        <v>13008</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="B54" s="19"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="11" t="str">
-        <f t="shared" ref="D54" si="4">IF(C54="","",$D$1&amp;TEXT(B54,"00000")&amp;"="&amp;C54)</f>
-        <v>KMGTOOL_GEN13008=実行時例外が発生しました。</v>
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="B55" s="17">
-        <v>14000</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="6"/>
       <c r="D55" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN14000=項目名がnullです。</v>
+        <f t="shared" ref="D55:D56" si="5">IF(C55="","",$D$1&amp;TEXT(B55,"00000")&amp;"="&amp;C55)</f>
+        <v/>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="B56" s="17">
-        <v>14001</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN14001=項目がnullです。</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="36">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="B57" s="17">
-        <v>14002</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN14002=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="36">
+        <f t="shared" ref="D57:D68" si="6">IF(C57="","",$D$1&amp;TEXT(B57,"00000")&amp;"="&amp;C57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="B58" s="17">
-        <v>14003</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN14003=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
-      <c r="B59" s="18">
-        <v>15000</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN15000=ファイル処理に失敗しました。</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="B60" s="18">
-        <v>16000</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN16000=ファイル処理に失敗しました。</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="36">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="B61" s="18">
-        <v>16001</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>14</v>
-      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="6"/>
       <c r="D61" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN16001=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="B62" s="19">
-        <v>19000</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="B62" s="19"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN19000=入力ファイルから対象パスを設定に失敗しました。</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="B63" s="19">
-        <v>19001</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="6"/>
       <c r="D63" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN19001=実行が成功しました。</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="B64" s="19">
-        <v>19002</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="6"/>
       <c r="D64" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN19002=実行中に例外が発生しました。</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="B65" s="19">
-        <v>19003</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN19003=バリデーションエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="54">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="B66" s="19">
-        <v>19004</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN19004=対象値からUUIDへの置換数とUUIDから置換値への置換数が一致しません。対象値からUUIDへの置換数：[{0}]、UUIDから置換値への置換数：[{1}]</v>
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="6"/>
       <c r="D67" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="6"/>
       <c r="D68" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="6">
-        <f t="shared" ref="A69:A83" si="5">ROW()-2</f>
-        <v>67</v>
-      </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="6">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="11" t="str">
-        <f t="shared" ref="D70:D71" si="6">IF(C70="","",$D$1&amp;TEXT(B70,"00000")&amp;"="&amp;C70)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="6">
-        <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="6">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="11" t="str">
-        <f t="shared" ref="D72:D83" si="7">IF(C72="","",$D$1&amp;TEXT(B72,"00000")&amp;"="&amp;C72)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="6">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="6">
-        <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="6">
-        <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="6">
-        <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="6">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="6">
-        <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="6">
-        <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="6">
-        <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="6">
-        <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="6">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="B82" s="19"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="6">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D71">
-    <sortCondition ref="B3:B71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D56">
+    <sortCondition ref="B3:B56"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -4114,7 +3821,7 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4140,7 +3847,7 @@
         <v>1000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D55" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -4156,7 +3863,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4172,7 +3879,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4188,7 +3895,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4204,7 +3911,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4220,7 +3927,7 @@
         <v>3000</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4236,7 +3943,7 @@
         <v>3001</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4252,7 +3959,7 @@
         <v>4000</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4268,7 +3975,7 @@
         <v>4001</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4284,7 +3991,7 @@
         <v>4002</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4300,7 +4007,7 @@
         <v>4003</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4316,7 +4023,7 @@
         <v>4004</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4332,7 +4039,7 @@
         <v>5000</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4348,7 +4055,7 @@
         <v>5001</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4364,7 +4071,7 @@
         <v>5002</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4380,7 +4087,7 @@
         <v>5003</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4396,7 +4103,7 @@
         <v>5004</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4412,7 +4119,7 @@
         <v>7000</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4428,7 +4135,7 @@
         <v>7001</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4444,7 +4151,7 @@
         <v>7002</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4460,7 +4167,7 @@
         <v>7003</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4476,7 +4183,7 @@
         <v>10000</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4492,7 +4199,7 @@
         <v>10001</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4508,7 +4215,7 @@
         <v>10002</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4524,7 +4231,7 @@
         <v>12000</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4540,7 +4247,7 @@
         <v>13000</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D28" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4556,7 +4263,7 @@
         <v>13001</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4572,7 +4279,7 @@
         <v>13002</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4588,7 +4295,7 @@
         <v>13003</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D31" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4604,7 +4311,7 @@
         <v>13004</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D32" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4620,7 +4327,7 @@
         <v>13005</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D33" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4636,7 +4343,7 @@
         <v>13006</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D34" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4652,7 +4359,7 @@
         <v>13007</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D35" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4668,7 +4375,7 @@
         <v>13008</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D36" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4684,7 +4391,7 @@
         <v>14000</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D37" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4700,7 +4407,7 @@
         <v>14001</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D38" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4716,7 +4423,7 @@
         <v>14002</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D39" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4732,7 +4439,7 @@
         <v>14003</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D40" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4748,7 +4455,7 @@
         <v>14004</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D41" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4764,7 +4471,7 @@
         <v>15000</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4780,7 +4487,7 @@
         <v>15001</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4796,7 +4503,7 @@
         <v>17000</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4812,7 +4519,7 @@
         <v>19000</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D45" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4828,7 +4535,7 @@
         <v>19001</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D46" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5032,7 +4739,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5058,7 +4765,7 @@
         <v>13000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D13" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -5074,7 +4781,7 @@
         <v>13001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5090,7 +4797,7 @@
         <v>13002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5106,7 +4813,7 @@
         <v>13003</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5122,7 +4829,7 @@
         <v>13004</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5138,7 +4845,7 @@
         <v>13005</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5154,7 +4861,7 @@
         <v>13006</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5170,7 +4877,7 @@
         <v>13007</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5186,7 +4893,7 @@
         <v>13008</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5202,7 +4909,7 @@
         <v>13009</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -5218,7 +4925,7 @@
         <v>13010</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>

--- a/docs/メッセージ一覧.xlsx
+++ b/docs/メッセージ一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool-base\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4055304-761E-4624-BB22-5D5CF6CF210C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D632DB9-3C7F-4AA3-A110-1252D97DF9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -443,14 +443,6 @@
   </si>
   <si>
     <t>挿入SQL出力に失敗しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>挿入SQL作成画面の実行ボタンの処理に失敗しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>挿入SQL作成ツールの開始に失敗しました。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2882,7 +2874,7 @@
         <v>3001</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2933,7 +2925,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
         <v>KMGTOOL_GEN03004=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
       </c>
     </row>
@@ -2946,7 +2938,7 @@
         <v>3005</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3106,7 +3098,7 @@
         <v>7001</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3170,7 +3162,7 @@
         <v>7005</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3186,7 +3178,7 @@
         <v>7006</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="11" t="str">
         <f t="shared" ref="D27:D28" si="2">IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
@@ -3202,7 +3194,7 @@
         <v>7007</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D28" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3218,7 +3210,7 @@
         <v>7008</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3346,7 +3338,7 @@
         <v>10004</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" s="11" t="str">
         <f>IF(C37="","",$D$1&amp;TEXT(B37,"00000")&amp;"="&amp;C37)</f>
@@ -3362,7 +3354,7 @@
         <v>10005</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D38" s="11" t="str">
         <f>IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
@@ -3378,7 +3370,7 @@
         <v>10006</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D39" s="11" t="str">
         <f>IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
@@ -3570,7 +3562,7 @@
         <v>19004</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D51" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3797,7 +3789,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CB3296-486C-4511-ACF5-08A2019C9995}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -3847,23 +3839,23 @@
         <v>1000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" s="11" t="str">
-        <f t="shared" ref="D3:D55" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D53" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOL_LOG01000=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="7">
-        <f t="shared" ref="A4:A59" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A57" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="8">
         <v>1001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4007,7 +3999,7 @@
         <v>4003</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4023,7 +4015,7 @@
         <v>4004</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4087,7 +4079,7 @@
         <v>5003</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4103,7 +4095,7 @@
         <v>5004</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4151,7 +4143,7 @@
         <v>7002</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4167,7 +4159,7 @@
         <v>7003</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4196,14 +4188,14 @@
         <v>23</v>
       </c>
       <c r="B25" s="8">
-        <v>10001</v>
+        <v>12000</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG10001=挿入SQL作成画面の実行ボタンの処理に失敗しました。</v>
+        <v>KMGTOOL_LOG12000=削除した行数=[{0}] Javadoc行の削除が完了しました。</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="36">
@@ -4212,110 +4204,110 @@
         <v>24</v>
       </c>
       <c r="B26" s="8">
-        <v>10002</v>
+        <v>13000</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG10002=挿入SQL作成ツールの開始に失敗しました。</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="36">
+        <v>KMGTOOL_LOG13000=Javadocタグ設定の対象外です。識別子=[{0}]、オリジナルブロック=[{1}]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="54">
       <c r="A27" s="7">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="8">
-        <v>12000</v>
+        <v>13001</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D27" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG12000=削除した行数=[{0}] Javadoc行の削除が完了しました。</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="36">
+        <v>KMGTOOL_LOG13001=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="54">
       <c r="A28" s="7">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="8">
-        <v>13000</v>
+        <v>13002</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="D28" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13000=Javadocタグ設定の対象外です。識別子=[{0}]、オリジナルブロック=[{1}]</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="54">
+        <v>KMGTOOL_LOG13002=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="90">
       <c r="A29" s="7">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="8">
-        <v>13001</v>
+        <v>13003</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13001=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="54">
+        <v>KMGTOOL_LOG13003=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="90">
       <c r="A30" s="7">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="8">
-        <v>13002</v>
+        <v>13004</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13002=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="90">
+        <v>KMGTOOL_LOG13004=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="36">
       <c r="A31" s="7">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="8">
-        <v>13003</v>
+        <v>13005</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D31" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13003=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="90">
+        <v>KMGTOOL_LOG13005=Javadocタグ設定処理を開始します。</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="36">
       <c r="A32" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="8">
-        <v>13004</v>
+        <v>13006</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D32" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13004=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
+        <v>KMGTOOL_LOG13006=Javadocタグ設定処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="36">
@@ -4324,14 +4316,14 @@
         <v>31</v>
       </c>
       <c r="B33" s="8">
-        <v>13005</v>
+        <v>13007</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D33" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13005=Javadocタグ設定処理を開始します。</v>
+        <v>KMGTOOL_LOG13007=対象のファイルの処理を開始します。対象のファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="36">
@@ -4340,14 +4332,14 @@
         <v>32</v>
       </c>
       <c r="B34" s="8">
-        <v>13006</v>
+        <v>13008</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D34" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13006=Javadocタグ設定処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
+        <v>KMGTOOL_LOG13008=対象のファイルの処理を終了します。対象のファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="36">
@@ -4356,14 +4348,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="8">
-        <v>13007</v>
+        <v>14000</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D35" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13007=対象のファイルの処理を開始します。対象のファイルのパス=[{0}]</v>
+        <v>KMGTOOL_LOG14000=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="36">
@@ -4372,14 +4364,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="8">
-        <v>13008</v>
+        <v>14001</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D36" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13008=対象のファイルの処理を終了します。対象のファイルのパス=[{0}]</v>
+        <v>KMGTOOL_LOG14001=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="36">
@@ -4388,14 +4380,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="8">
-        <v>14000</v>
+        <v>14002</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D37" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14000=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG14002=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="36">
@@ -4404,14 +4396,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="8">
-        <v>14001</v>
+        <v>14003</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="D38" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14001=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOL_LOG14003=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="36">
@@ -4420,46 +4412,46 @@
         <v>37</v>
       </c>
       <c r="B39" s="8">
-        <v>14002</v>
+        <v>14004</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="D39" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14002=1行データの読み込み中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="36">
+        <v>KMGTOOL_LOG14004=中間ファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="7">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="8">
-        <v>14003</v>
+        <v>15000</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="D40" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14003=中間ファイルに書き込み中にエラーが発生しました。</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="36">
+        <v>KMGTOOL_LOG15000=初期化の失敗</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="7">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="8">
-        <v>14004</v>
+        <v>15001</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="D41" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14004=中間ファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
+        <v>KMGTOOL_LOG15001=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4468,78 +4460,70 @@
         <v>40</v>
       </c>
       <c r="B42" s="8">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG15000=初期化の失敗</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>KMGTOOL_LOG17000=初期化の失敗</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="36">
       <c r="A43" s="7">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B43" s="8">
-        <v>15001</v>
+        <v>19000</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="D43" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG15001=初期化で例外が発生しました。</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>KMGTOOL_LOG19000=マッピング変換処理を開始します。</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="36">
       <c r="A44" s="7">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B44" s="8">
-        <v>17000</v>
+        <v>19001</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D44" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG17000=初期化の失敗</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="36">
+        <v>KMGTOOL_LOG19001=マッピング変換処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="7">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="8">
-        <v>19000</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG19000=マッピング変換処理を開始します。</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="36">
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="7">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="8">
-        <v>19001</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>88</v>
-      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG19001=マッピング変換処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4559,7 +4543,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="8"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="6"/>
       <c r="D48" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4571,7 +4555,7 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="8"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="6"/>
       <c r="D49" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4595,7 +4579,7 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B51" s="16"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="6"/>
       <c r="D51" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4607,7 +4591,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B52" s="16"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="6"/>
       <c r="D52" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4634,7 +4618,7 @@
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
       <c r="D54" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D54:D57" si="2">IF(C54="","",$D$1&amp;TEXT(B54,"00000")&amp;"="&amp;C54)</f>
         <v/>
       </c>
     </row>
@@ -4646,7 +4630,7 @@
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
       <c r="D55" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4658,7 +4642,7 @@
       <c r="B56" s="7"/>
       <c r="C56" s="6"/>
       <c r="D56" s="11" t="str">
-        <f t="shared" ref="D56:D59" si="2">IF(C56="","",$D$1&amp;TEXT(B56,"00000")&amp;"="&amp;C56)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4674,33 +4658,9 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="7">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="7">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C44">
-    <sortCondition ref="B3:B44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C42">
+    <sortCondition ref="B3:B42"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/docs/メッセージ一覧.xlsx
+++ b/docs/メッセージ一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool-base\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D632DB9-3C7F-4AA3-A110-1252D97DF9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7849424B-39E9-4A2E-866A-88B6AD28A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="5" r:id="rId1"/>
@@ -140,14 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KMGTOOL_LOG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KMGTOOL_GEN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項目名がnullです。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -366,10 +358,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KMGTOOL_VAL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>YAMLデータが空です。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -564,6 +552,18 @@
     <rPh sb="29" eb="33">
       <t>ショキショリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KMGTOOLBASE_GEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KMGTOOLBASE_LOG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KMGTOOLBASE_VAL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -847,7 +847,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOL_GEN</a:t>
+            <a:t>KMGTOOLBASE_GEN</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -876,7 +876,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOL_</a:t>
+            <a:t>KMGTOOLBASE_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -1403,7 +1403,23 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOL_</a:t>
+            <a:t>KMGTOOL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BASE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -1432,7 +1448,23 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOL_</a:t>
+            <a:t>KMGTOOL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BASE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -1979,7 +2011,23 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOL_</a:t>
+            <a:t>KMGTOOL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BASE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -2007,7 +2055,23 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>KMGTOOL_</a:t>
+            <a:t>KMGTOOL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BASE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>_</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -2768,7 +2832,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2794,11 +2858,11 @@
         <v>1000</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D33" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGTOOL_GEN01000=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_GEN01000=アクセサ作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2810,11 +2874,11 @@
         <v>1001</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN01001=項目名がnullです。</v>
+        <v>KMGTOOLBASE_GEN01001=項目名がnullです。</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2826,11 +2890,11 @@
         <v>1002</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN01002=Javadocコメントがnullです。</v>
+        <v>KMGTOOLBASE_GEN01002=Javadocコメントがnullです。</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2842,11 +2906,11 @@
         <v>1003</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN01003=型情報がnullです。</v>
+        <v>KMGTOOLBASE_GEN01003=型情報がnullです。</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="36">
@@ -2858,11 +2922,11 @@
         <v>3000</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN03000=テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0}]</v>
+        <v>KMGTOOLBASE_GEN03000=テンプレートファイルをYAML形式で読み込むことに失敗しました。テンプレートパス=[{0}]</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36">
@@ -2874,11 +2938,11 @@
         <v>3001</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN03001=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0}]</v>
+        <v>KMGTOOLBASE_GEN03001=入力ファイルの読み込み中にエラーが発生しました。入力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="54">
@@ -2890,11 +2954,11 @@
         <v>3002</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN03002=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}]、 テンプレートパス：[{1}]、 出力ファイルパス=[{2}]</v>
+        <v>KMGTOOLBASE_GEN03002=出力バッファの書き込み中にエラーが発生しました。入力ファイルパス：[{0}]、 テンプレートパス：[{1}]、 出力ファイルパス=[{2}]</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="36">
@@ -2906,11 +2970,11 @@
         <v>3003</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN03003=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
+        <v>KMGTOOLBASE_GEN03003=入力ファイルを開くことができませんでした。入力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36">
@@ -2922,11 +2986,11 @@
         <v>3004</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="11" t="str">
         <f>IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
-        <v>KMGTOOL_GEN03004=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
+        <v>KMGTOOLBASE_GEN03004=出力ファイルを開くことができませんでした。出力ファイルパス：[{0}]</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="36">
@@ -2938,11 +3002,11 @@
         <v>3005</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN03005=中間の列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</v>
+        <v>KMGTOOLBASE_GEN03005=中間の列が不足しています。入力ファイルパス: [{0}]、 プレースホルダーキー: [{1}]、 列: [{2}] 番目</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36">
@@ -2954,11 +3018,11 @@
         <v>3006</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN03006=テンプレートの動的変換ロジックをクローズ中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_GEN03006=テンプレートの動的変換ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2970,11 +3034,11 @@
         <v>4000</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN04000=項目名がnullです。</v>
+        <v>KMGTOOLBASE_GEN04000=項目名がnullです。</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2986,11 +3050,11 @@
         <v>4001</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN04001=項目名がnullです。</v>
+        <v>KMGTOOLBASE_GEN04001=項目名がnullです。</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="36">
@@ -3002,11 +3066,11 @@
         <v>4002</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN04002=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_GEN04002=列挙型からcase文作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3018,11 +3082,11 @@
         <v>5000</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN05000=コメントがnullです。</v>
+        <v>KMGTOOLBASE_GEN05000=コメントがnullです。</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3034,11 +3098,11 @@
         <v>5001</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN05001=フィールドがnullです。</v>
+        <v>KMGTOOLBASE_GEN05001=フィールドがnullです。</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3050,11 +3114,11 @@
         <v>5002</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN05002=型がnullです。</v>
+        <v>KMGTOOLBASE_GEN05002=型がnullです。</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="36">
@@ -3066,11 +3130,11 @@
         <v>5003</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN05003=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_GEN05003=フィールド作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3082,11 +3146,11 @@
         <v>7000</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN07000=1行読み込みに失敗しました。</v>
+        <v>KMGTOOLBASE_GEN07000=1行読み込みに失敗しました。</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="36">
@@ -3098,11 +3162,11 @@
         <v>7001</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN07001=中間データの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOLBASE_GEN07001=中間データの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="36">
@@ -3114,11 +3178,11 @@
         <v>7002</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN07002=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOLBASE_GEN07002=ファイルのフラッシュに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="36">
@@ -3130,11 +3194,11 @@
         <v>7003</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN07003=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOLBASE_GEN07003=入力ファイルを開くのに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="36">
@@ -3146,11 +3210,11 @@
         <v>7004</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN07004=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOLBASE_GEN07004=出力ファイルを開くのに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="36">
@@ -3162,11 +3226,11 @@
         <v>7005</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN07005=書き込み対象の中間データの最後がリストに存在しません。</v>
+        <v>KMGTOOLBASE_GEN07005=書き込み対象の中間データの最後がリストに存在しません。</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="36">
@@ -3178,11 +3242,11 @@
         <v>7006</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="11" t="str">
         <f t="shared" ref="D27:D28" si="2">IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
-        <v>KMGTOOL_GEN07006=一時的な中間ファイルの作成に失敗しました。中間ファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
+        <v>KMGTOOLBASE_GEN07006=一時的な中間ファイルの作成に失敗しました。中間ファイル名のみ=[{0}]、サフィックスと拡張子=[{1}]</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="36">
@@ -3194,11 +3258,11 @@
         <v>7007</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D28" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>KMGTOOL_GEN07007=入力、中間、テンプレート、出力の1行パターンの抽象クラスの初期処理で出力ファイルの区切り文字が「null」です。</v>
+        <v>KMGTOOLBASE_GEN07007=入力、中間、テンプレート、出力の1行パターンの抽象クラスの初期処理で出力ファイルの区切り文字が「null」です。</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="54">
@@ -3210,11 +3274,11 @@
         <v>7008</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN07008=入力、中間、テンプレート、出力の1行パターンの抽象クラスの初期処理で出力ファイルの区切り文字が「NONE」です。</v>
+        <v>KMGTOOLBASE_GEN07008=入力、中間、テンプレート、出力の1行パターンの抽象クラスの初期処理で出力ファイルの区切り文字が「NONE」です。</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3226,11 +3290,11 @@
         <v>8000</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN08000=入力ファイルパスがnullです。</v>
+        <v>KMGTOOLBASE_GEN08000=入力ファイルパスがnullです。</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3242,11 +3306,11 @@
         <v>8001</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN08001=入力パスファイルが存在しません。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOLBASE_GEN08001=入力パスファイルが存在しません。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="36">
@@ -3258,11 +3322,11 @@
         <v>8002</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN08002=入力ファイルの読み込みに失敗しました。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOLBASE_GEN08002=入力ファイルの読み込みに失敗しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="36">
@@ -3274,11 +3338,11 @@
         <v>10000</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D33" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_GEN10000=出力ファイルのディレクトリの作成に失敗しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOLBASE_GEN10000=出力ファイルのディレクトリの作成に失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3290,11 +3354,11 @@
         <v>10001</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D34" s="11" t="str">
         <f t="shared" ref="D34:D54" si="3">IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
-        <v>KMGTOOL_GEN10001=暗号化されたファイルです。入力ファイルのパス=[{0}]</v>
+        <v>KMGTOOLBASE_GEN10001=暗号化されたファイルです。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="36">
@@ -3306,11 +3370,11 @@
         <v>10002</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D35" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN10002=入力ファイルのパスの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
+        <v>KMGTOOLBASE_GEN10002=入力ファイルのパスの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="36">
@@ -3322,11 +3386,11 @@
         <v>10003</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D36" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN10003=出力ファイルへの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOLBASE_GEN10003=出力ファイルへの書き込みに失敗しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3338,11 +3402,11 @@
         <v>10004</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D37" s="11" t="str">
         <f>IF(C37="","",$D$1&amp;TEXT(B37,"00000")&amp;"="&amp;C37)</f>
-        <v>KMGTOOL_GEN10004=ワークブックが空です。入力ファイルのパス=[{0}]</v>
+        <v>KMGTOOLBASE_GEN10004=ワークブックが空です。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="36">
@@ -3354,11 +3418,11 @@
         <v>10005</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D38" s="11" t="str">
         <f>IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
-        <v>KMGTOOL_GEN10005=ワークブックの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
+        <v>KMGTOOLBASE_GEN10005=ワークブックの読み込みに失敗しました。入力ファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3370,11 +3434,11 @@
         <v>10006</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D39" s="11" t="str">
         <f>IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
-        <v>KMGTOOL_GEN10006=入力シートはnullです。</v>
+        <v>KMGTOOLBASE_GEN10006=入力シートはnullです。</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="36">
@@ -3386,11 +3450,11 @@
         <v>12000</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D40" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN12000=ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</v>
+        <v>KMGTOOLBASE_GEN12000=ファイルの書き込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="36">
@@ -3402,11 +3466,11 @@
         <v>12001</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D41" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN12001=ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
+        <v>KMGTOOLBASE_GEN12001=ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="36">
@@ -3418,11 +3482,11 @@
         <v>12002</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D42" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN12002=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
+        <v>KMGTOOLBASE_GEN12002=入力ファイルの読み込み中にエラーが発生しました。ファイル=[{0}]</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="36">
@@ -3434,11 +3498,11 @@
         <v>13003</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D43" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN13003=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
+        <v>KMGTOOLBASE_GEN13003=定義ファイルの読み込みに失敗しました。定義ファイル=[{0}]</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3450,11 +3514,11 @@
         <v>14000</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D44" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN14000=項目名がnullです。</v>
+        <v>KMGTOOLBASE_GEN14000=項目名がnullです。</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3466,11 +3530,11 @@
         <v>14001</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D45" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN14001=項目がnullです。</v>
+        <v>KMGTOOLBASE_GEN14001=項目がnullです。</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="36">
@@ -3482,11 +3546,11 @@
         <v>14002</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D46" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN14002=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
+        <v>KMGTOOLBASE_GEN14002=項目と項目名に分かれていません。「項目=項目名」の設定にしてください。行番号=[{0}]、行データ=[{1}]</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="36">
@@ -3498,11 +3562,11 @@
         <v>14003</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D47" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN14003=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_GEN14003=メッセージの種類作成ロジックをクローズ中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3518,7 +3582,7 @@
       </c>
       <c r="D48" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN15000=ファイル処理に失敗しました。</v>
+        <v>KMGTOOLBASE_GEN15000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3534,7 +3598,7 @@
       </c>
       <c r="D49" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN16000=ファイル処理に失敗しました。</v>
+        <v>KMGTOOLBASE_GEN16000=ファイル処理に失敗しました。</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="36">
@@ -3550,7 +3614,7 @@
       </c>
       <c r="D50" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN16001=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
+        <v>KMGTOOLBASE_GEN16001=テンプレートファイルの取得に失敗しました。テンプレートファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="54">
@@ -3562,11 +3626,11 @@
         <v>19004</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D51" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>KMGTOOL_GEN19004=対象値からUUIDへの置換数とUUIDから置換値への置換数が一致しません。対象値からUUIDへの置換数：[{0}]、UUIDから置換値への置換数：[{1}]</v>
+        <v>KMGTOOLBASE_GEN19004=対象値からUUIDへの置換数とUUIDから置換値への置換数が一致しません。対象値からUUIDへの置換数：[{0}]、UUIDから置換値への置換数：[{1}]</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3813,7 +3877,7 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3839,11 +3903,11 @@
         <v>1000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D53" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGTOOL_LOG01000=中間ファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG01000=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
@@ -3855,11 +3919,11 @@
         <v>1001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG01001=中間ファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
+        <v>KMGTOOLBASE_LOG01001=中間ファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="36">
@@ -3871,11 +3935,11 @@
         <v>1002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG01002=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG01002=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36">
@@ -3887,11 +3951,11 @@
         <v>1003</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG01003=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG01003=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="36">
@@ -3903,11 +3967,11 @@
         <v>1004</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG01004=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG01004=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36">
@@ -3919,11 +3983,11 @@
         <v>3000</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG03000=テンプレートの動的変換処理を開始します。</v>
+        <v>KMGTOOLBASE_LOG03000=テンプレートの動的変換処理を開始します。</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36">
@@ -3935,11 +3999,11 @@
         <v>3001</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG03001=テンプレートの動的変換処理を終了します。</v>
+        <v>KMGTOOLBASE_LOG03001=テンプレートの動的変換処理を終了します。</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="36">
@@ -3951,11 +4015,11 @@
         <v>4000</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG04000=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG04000=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36">
@@ -3967,11 +4031,11 @@
         <v>4001</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG04001=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG04001=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="36">
@@ -3983,11 +4047,11 @@
         <v>4002</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG04002=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG04002=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36">
@@ -3999,11 +4063,11 @@
         <v>4003</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG04003=中間ファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG04003=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="36">
@@ -4015,11 +4079,11 @@
         <v>4004</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG04004=中間ファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
+        <v>KMGTOOLBASE_LOG04004=中間ファイルに書き込み完了。名称=[{0}]、 項目名=[{1}]</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="36">
@@ -4031,11 +4095,11 @@
         <v>5000</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG05000=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG05000=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="36">
@@ -4047,11 +4111,11 @@
         <v>5001</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG05001=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG05001=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="36">
@@ -4063,11 +4127,11 @@
         <v>5002</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG05002=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG05002=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="36">
@@ -4079,11 +4143,11 @@
         <v>5003</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG05003=中間ファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG05003=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="36">
@@ -4095,11 +4159,11 @@
         <v>5004</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG05004=中間ファイルに書き込み完了。コメント=[{0}]</v>
+        <v>KMGTOOLBASE_LOG05004=中間ファイルに書き込み完了。コメント=[{0}]</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="36">
@@ -4111,11 +4175,11 @@
         <v>7000</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG07000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
+        <v>KMGTOOLBASE_LOG07000=リーダーリソースのクローズ処理中にエラーが発生しました。入力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="36">
@@ -4127,11 +4191,11 @@
         <v>7001</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG07001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
+        <v>KMGTOOLBASE_LOG07001=ライターリソースのクローズ処理中にエラーが発生しました。出力ファイルパス=[{0}]</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="36">
@@ -4143,11 +4207,11 @@
         <v>7002</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG07002=中間ファイルに書き込む処理を開始します。</v>
+        <v>KMGTOOLBASE_LOG07002=中間ファイルに書き込む処理を開始します。</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="36">
@@ -4159,11 +4223,11 @@
         <v>7003</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG07003=中間ファイルに書き込む処理を終了します。</v>
+        <v>KMGTOOLBASE_LOG07003=中間ファイルに書き込む処理を終了します。</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4175,11 +4239,11 @@
         <v>10000</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG10000=挿入SQL出力に失敗しました。</v>
+        <v>KMGTOOLBASE_LOG10000=挿入SQL出力に失敗しました。</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="36">
@@ -4191,11 +4255,11 @@
         <v>12000</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG12000=削除した行数=[{0}] Javadoc行の削除が完了しました。</v>
+        <v>KMGTOOLBASE_LOG12000=削除した行数=[{0}] Javadoc行の削除が完了しました。</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="36">
@@ -4207,11 +4271,11 @@
         <v>13000</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13000=Javadocタグ設定の対象外です。識別子=[{0}]、オリジナルブロック=[{1}]</v>
+        <v>KMGTOOLBASE_LOG13000=Javadocタグ設定の対象外です。識別子=[{0}]、オリジナルブロック=[{1}]</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="54">
@@ -4223,11 +4287,11 @@
         <v>13001</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13001=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
+        <v>KMGTOOLBASE_LOG13001=タグ存在しないため、タグを追加しました。追加先の区分：[{0}]、 追加先の要素名：[{1}]、 追加したタグ：[{2}]</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="54">
@@ -4239,11 +4303,11 @@
         <v>13002</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D28" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13002=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
+        <v>KMGTOOLBASE_LOG13002=タグを削除します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="90">
@@ -4255,11 +4319,11 @@
         <v>13003</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13003=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
+        <v>KMGTOOLBASE_LOG13003=タグの位置を変更します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 変更後のタグの内容:[{6}]、 変更後のタグ:[{7}]、 変更後の指定値:[{8}]、 変更後の説明:[{9}]</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="90">
@@ -4271,11 +4335,11 @@
         <v>13004</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13004=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
+        <v>KMGTOOLBASE_LOG13004=タグを置換します。区分：[{0}]、 要素名：[{1}]、 元の対象行:[{2}]、 元のタグ:[{3}]、 元の指定値:[{4}]、 元の説明:[{5}]、 置換後のタグの内容:[{6}]、 置換後のタグ:[{7}]、 置換後の指定値:[{8}]、 置換後の説明:[{9}]</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="36">
@@ -4287,11 +4351,11 @@
         <v>13005</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13005=Javadocタグ設定処理を開始します。</v>
+        <v>KMGTOOLBASE_LOG13005=Javadocタグ設定処理を開始します。</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="36">
@@ -4303,11 +4367,11 @@
         <v>13006</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D32" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13006=Javadocタグ設定処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
+        <v>KMGTOOLBASE_LOG13006=Javadocタグ設定処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="36">
@@ -4319,11 +4383,11 @@
         <v>13007</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13007=対象のファイルの処理を開始します。対象のファイルのパス=[{0}]</v>
+        <v>KMGTOOLBASE_LOG13007=対象のファイルの処理を開始します。対象のファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="36">
@@ -4335,11 +4399,11 @@
         <v>13008</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG13008=対象のファイルの処理を終了します。対象のファイルのパス=[{0}]</v>
+        <v>KMGTOOLBASE_LOG13008=対象のファイルの処理を終了します。対象のファイルのパス=[{0}]</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="36">
@@ -4351,11 +4415,11 @@
         <v>14000</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D35" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14000=クリア処理中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG14000=クリア処理中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="36">
@@ -4367,11 +4431,11 @@
         <v>14001</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D36" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14001=カラムの追加中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG14001=カラムの追加中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="36">
@@ -4383,11 +4447,11 @@
         <v>14002</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D37" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14002=1行データの読み込み中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG14002=1行データの読み込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="36">
@@ -4399,11 +4463,11 @@
         <v>14003</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D38" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14003=中間ファイルに書き込み中にエラーが発生しました。</v>
+        <v>KMGTOOLBASE_LOG14003=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="36">
@@ -4415,11 +4479,11 @@
         <v>14004</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D39" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG14004=中間ファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
+        <v>KMGTOOLBASE_LOG14004=中間ファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4435,7 +4499,7 @@
       </c>
       <c r="D40" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG15000=初期化の失敗</v>
+        <v>KMGTOOLBASE_LOG15000=初期化の失敗</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4451,7 +4515,7 @@
       </c>
       <c r="D41" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG15001=初期化で例外が発生しました。</v>
+        <v>KMGTOOLBASE_LOG15001=初期化で例外が発生しました。</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4467,7 +4531,7 @@
       </c>
       <c r="D42" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG17000=初期化の失敗</v>
+        <v>KMGTOOLBASE_LOG17000=初期化の失敗</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="36">
@@ -4479,11 +4543,11 @@
         <v>19000</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D43" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG19000=マッピング変換処理を開始します。</v>
+        <v>KMGTOOLBASE_LOG19000=マッピング変換処理を開始します。</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="36">
@@ -4495,11 +4559,11 @@
         <v>19001</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D44" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_LOG19001=マッピング変換処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
+        <v>KMGTOOLBASE_LOG19001=マッピング変換処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4699,7 +4763,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="3" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4725,11 +4789,11 @@
         <v>13000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D13" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
-        <v>KMGTOOL_VAL13000=YAMLデータが空です。</v>
+        <v>KMGTOOLBASE_VAL13000=YAMLデータが空です。</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
@@ -4741,11 +4805,11 @@
         <v>13001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_VAL13001={0}が空ありません。Javadocタグ設定の構成のキーワード=[{1}]</v>
+        <v>KMGTOOLBASE_VAL13001={0}が空ありません。Javadocタグ設定の構成のキーワード=[{1}]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4757,11 +4821,11 @@
         <v>13002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_VAL13002=[{0}]は、[{1}]の場合のみ指定可能です。</v>
+        <v>KMGTOOLBASE_VAL13002=[{0}]は、[{1}]の場合のみ指定可能です。</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4773,11 +4837,11 @@
         <v>13003</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_VAL13003=[{0}]が指定可能な値ではありません。[{0}]=[{1}]</v>
+        <v>KMGTOOLBASE_VAL13003=[{0}]が指定可能な値ではありません。[{0}]=[{1}]</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4789,11 +4853,11 @@
         <v>13004</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_VAL13004=[{0}]は対象要素を指定してください。</v>
+        <v>KMGTOOLBASE_VAL13004=[{0}]は対象要素を指定してください。</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4805,11 +4869,11 @@
         <v>13005</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_VAL13005=[{0}]が指定されていません。[{0}]のキーワード=[{1}]</v>
+        <v>KMGTOOLBASE_VAL13005=[{0}]が指定されていません。[{0}]のキーワード=[{1}]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4821,11 +4885,11 @@
         <v>13006</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_VAL13006=[{0}]が存在しません。指定された[{0}]=[{1}]</v>
+        <v>KMGTOOLBASE_VAL13006=[{0}]が存在しません。指定された[{0}]=[{1}]</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4837,11 +4901,11 @@
         <v>13007</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_VAL13007=[{0}]が指定されいません。[{0}]のキーワード=[{1}]</v>
+        <v>KMGTOOLBASE_VAL13007=[{0}]が指定されいません。[{0}]のキーワード=[{1}]</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4853,11 +4917,11 @@
         <v>13008</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_VAL13008=[{0}]が正しく設定されていません。[{0}]=[{1}]</v>
+        <v>KMGTOOLBASE_VAL13008=[{0}]が正しく設定されていません。[{0}]=[{1}]</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4869,11 +4933,11 @@
         <v>13009</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_VAL13009=[{0}]が正しく設定されていません。[{0}]=[{1}]</v>
+        <v>KMGTOOLBASE_VAL13009=[{0}]が正しく設定されていません。[{0}]=[{1}]</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="36">
@@ -4885,11 +4949,11 @@
         <v>13010</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOL_VAL13010=Java区分から要素名が取得できません。コード行=[{0}]、Java区分=[{1}]</v>
+        <v>KMGTOOLBASE_VAL13010=Java区分から要素名が取得できません。コード行=[{0}]、Java区分=[{1}]</v>
       </c>
     </row>
   </sheetData>

--- a/docs/メッセージ一覧.xlsx
+++ b/docs/メッセージ一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse_git_wk\DictOpeProj\kmg-tool-base\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7849424B-39E9-4A2E-866A-88B6AD28A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475ECBE0-0687-449F-8F43-4F1EACA23C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19820" yWindow="490" windowWidth="19180" windowHeight="18250" tabRatio="590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="メッセージ一覧" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -94,16 +94,6 @@
   </si>
   <si>
     <t>プリフィックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期化の失敗</t>
-    <rPh sb="0" eb="3">
-      <t>ショキカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シッパイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -123,19 +113,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期化で例外が発生しました。</t>
-    <rPh sb="0" eb="3">
-      <t>ショキカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハッセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2832,7 +2809,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2858,7 +2835,7 @@
         <v>1000</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D33" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -2874,7 +2851,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2890,7 +2867,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2906,7 +2883,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2922,7 +2899,7 @@
         <v>3000</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2938,7 +2915,7 @@
         <v>3001</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2954,7 +2931,7 @@
         <v>3002</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2970,7 +2947,7 @@
         <v>3003</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -2986,7 +2963,7 @@
         <v>3004</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="11" t="str">
         <f>IF(C11="","",$D$1&amp;TEXT(B11,"00000")&amp;"="&amp;C11)</f>
@@ -3002,7 +2979,7 @@
         <v>3005</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3018,7 +2995,7 @@
         <v>3006</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3034,7 +3011,7 @@
         <v>4000</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3050,7 +3027,7 @@
         <v>4001</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3066,7 +3043,7 @@
         <v>4002</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3082,7 +3059,7 @@
         <v>5000</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3098,7 +3075,7 @@
         <v>5001</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3114,7 +3091,7 @@
         <v>5002</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3130,7 +3107,7 @@
         <v>5003</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3146,7 +3123,7 @@
         <v>7000</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D21" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3162,7 +3139,7 @@
         <v>7001</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3178,7 +3155,7 @@
         <v>7002</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3194,7 +3171,7 @@
         <v>7003</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3210,7 +3187,7 @@
         <v>7004</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3226,7 +3203,7 @@
         <v>7005</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3242,7 +3219,7 @@
         <v>7006</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="11" t="str">
         <f t="shared" ref="D27:D28" si="2">IF(C27="","",$D$1&amp;TEXT(B27,"00000")&amp;"="&amp;C27)</f>
@@ -3258,7 +3235,7 @@
         <v>7007</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="11" t="str">
         <f t="shared" si="2"/>
@@ -3274,7 +3251,7 @@
         <v>7008</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3290,7 +3267,7 @@
         <v>8000</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3306,7 +3283,7 @@
         <v>8001</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3322,7 +3299,7 @@
         <v>8002</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3338,7 +3315,7 @@
         <v>10000</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D33" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3354,7 +3331,7 @@
         <v>10001</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34" s="11" t="str">
         <f t="shared" ref="D34:D54" si="3">IF(C34="","",$D$1&amp;TEXT(B34,"00000")&amp;"="&amp;C34)</f>
@@ -3370,7 +3347,7 @@
         <v>10002</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D35" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3386,7 +3363,7 @@
         <v>10003</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D36" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3402,7 +3379,7 @@
         <v>10004</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="11" t="str">
         <f>IF(C37="","",$D$1&amp;TEXT(B37,"00000")&amp;"="&amp;C37)</f>
@@ -3418,7 +3395,7 @@
         <v>10005</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D38" s="11" t="str">
         <f>IF(C38="","",$D$1&amp;TEXT(B38,"00000")&amp;"="&amp;C38)</f>
@@ -3434,7 +3411,7 @@
         <v>10006</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D39" s="11" t="str">
         <f>IF(C39="","",$D$1&amp;TEXT(B39,"00000")&amp;"="&amp;C39)</f>
@@ -3450,7 +3427,7 @@
         <v>12000</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3466,7 +3443,7 @@
         <v>12001</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D41" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3482,7 +3459,7 @@
         <v>12002</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D42" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3498,7 +3475,7 @@
         <v>13003</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D43" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3514,7 +3491,7 @@
         <v>14000</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D44" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3530,7 +3507,7 @@
         <v>14001</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D45" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3546,7 +3523,7 @@
         <v>14002</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3562,7 +3539,7 @@
         <v>14003</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D47" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3578,7 +3555,7 @@
         <v>15000</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3594,7 +3571,7 @@
         <v>16000</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3610,7 +3587,7 @@
         <v>16001</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3626,7 +3603,7 @@
         <v>19004</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D51" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3853,7 +3830,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CB3296-486C-4511-ACF5-08A2019C9995}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -3877,7 +3854,7 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3903,23 +3880,23 @@
         <v>1000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="11" t="str">
-        <f t="shared" ref="D3:D53" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
+        <f t="shared" ref="D3:D50" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
         <v>KMGTOOLBASE_LOG01000=中間ファイルに書き込み中にエラーが発生しました。</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
       <c r="A4" s="7">
-        <f t="shared" ref="A4:A57" si="1">ROW()-2</f>
+        <f t="shared" ref="A4:A54" si="1">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="8">
         <v>1001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3935,7 +3912,7 @@
         <v>1002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3951,7 +3928,7 @@
         <v>1003</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3967,7 +3944,7 @@
         <v>1004</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3983,7 +3960,7 @@
         <v>3000</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -3999,7 +3976,7 @@
         <v>3001</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4015,7 +3992,7 @@
         <v>4000</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4031,7 +4008,7 @@
         <v>4001</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4047,7 +4024,7 @@
         <v>4002</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="13" t="str">
         <f t="shared" si="0"/>
@@ -4063,7 +4040,7 @@
         <v>4003</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4079,7 +4056,7 @@
         <v>4004</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4095,7 +4072,7 @@
         <v>5000</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D15" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4111,7 +4088,7 @@
         <v>5001</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4127,7 +4104,7 @@
         <v>5002</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4143,7 +4120,7 @@
         <v>5003</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4159,7 +4136,7 @@
         <v>5004</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D19" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4175,7 +4152,7 @@
         <v>7000</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4191,7 +4168,7 @@
         <v>7001</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4207,7 +4184,7 @@
         <v>7002</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4223,14 +4200,14 @@
         <v>7003</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOLBASE_LOG07003=中間ファイルに書き込む処理を終了します。</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="36">
       <c r="A24" s="7">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -4239,7 +4216,7 @@
         <v>10000</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4255,7 +4232,7 @@
         <v>12000</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4271,7 +4248,7 @@
         <v>13000</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D26" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4287,7 +4264,7 @@
         <v>13001</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4303,7 +4280,7 @@
         <v>13002</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D28" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4319,7 +4296,7 @@
         <v>13003</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4335,7 +4312,7 @@
         <v>13004</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4351,7 +4328,7 @@
         <v>13005</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4367,7 +4344,7 @@
         <v>13006</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4383,7 +4360,7 @@
         <v>13007</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4399,7 +4376,7 @@
         <v>13008</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4415,7 +4392,7 @@
         <v>14000</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D35" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4431,7 +4408,7 @@
         <v>14001</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4447,7 +4424,7 @@
         <v>14002</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D37" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4463,7 +4440,7 @@
         <v>14003</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4479,43 +4456,43 @@
         <v>14004</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D39" s="11" t="str">
         <f t="shared" si="0"/>
         <v>KMGTOOLBASE_LOG14004=中間ファイルに書き込み完了。項目=[{0}]、項目名=[{1}]</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="36">
       <c r="A40" s="7">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="8">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D40" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOLBASE_LOG15000=初期化の失敗</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>KMGTOOLBASE_LOG19000=マッピング変換処理を開始します。</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="36">
       <c r="A41" s="7">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="8">
-        <v>15001</v>
+        <v>19001</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D41" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOLBASE_LOG15001=初期化で例外が発生しました。</v>
+        <v>KMGTOOLBASE_LOG19001=マッピング変換処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4523,47 +4500,35 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B42" s="8">
-        <v>17000</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOLBASE_LOG17000=初期化の失敗</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="36">
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="7">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B43" s="8">
-        <v>19000</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOLBASE_LOG19000=マッピング変換処理を開始します。</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="36">
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="7">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B44" s="8">
-        <v>19001</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>KMGTOOLBASE_LOG19001=マッピング変換処理を終了します。読み込みファイル数:[{0}]、合計置換数:[{1}]</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4571,7 +4536,7 @@
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B45" s="8"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="6"/>
       <c r="D45" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4583,7 +4548,7 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B46" s="8"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="6"/>
       <c r="D46" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4595,7 +4560,7 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B47" s="8"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="6"/>
       <c r="D47" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4607,7 +4572,7 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B48" s="16"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="6"/>
       <c r="D48" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4619,7 +4584,7 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B49" s="16"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="6"/>
       <c r="D49" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4631,7 +4596,7 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B50" s="16"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="6"/>
       <c r="D50" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4646,7 +4611,7 @@
       <c r="B51" s="7"/>
       <c r="C51" s="6"/>
       <c r="D51" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D51:D54" si="2">IF(C51="","",$D$1&amp;TEXT(B51,"00000")&amp;"="&amp;C51)</f>
         <v/>
       </c>
     </row>
@@ -4658,7 +4623,7 @@
       <c r="B52" s="7"/>
       <c r="C52" s="6"/>
       <c r="D52" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4670,7 +4635,7 @@
       <c r="B53" s="7"/>
       <c r="C53" s="6"/>
       <c r="D53" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4682,49 +4647,13 @@
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
       <c r="D54" s="11" t="str">
-        <f t="shared" ref="D54:D57" si="2">IF(C54="","",$D$1&amp;TEXT(B54,"00000")&amp;"="&amp;C54)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="7">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="7">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="7">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C42">
-    <sortCondition ref="B3:B42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C39">
+    <sortCondition ref="B3:B39"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -4763,7 +4692,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4789,7 +4718,7 @@
         <v>13000</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11" t="str">
         <f t="shared" ref="D3:D13" si="0">IF(C3="","",$D$1&amp;TEXT(B3,"00000")&amp;"="&amp;C3)</f>
@@ -4805,7 +4734,7 @@
         <v>13001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4821,7 +4750,7 @@
         <v>13002</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4837,7 +4766,7 @@
         <v>13003</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4853,7 +4782,7 @@
         <v>13004</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4869,7 +4798,7 @@
         <v>13005</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4885,7 +4814,7 @@
         <v>13006</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4901,7 +4830,7 @@
         <v>13007</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4917,7 +4846,7 @@
         <v>13008</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4933,7 +4862,7 @@
         <v>13009</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -4949,7 +4878,7 @@
         <v>13010</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
